--- a/docs/Tests.xlsx
+++ b/docs/Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Table</t>
   </si>
@@ -222,6 +222,27 @@
   </si>
   <si>
     <t>array length?</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>UIB01</t>
+  </si>
+  <si>
+    <t>Jinghu</t>
+  </si>
+  <si>
+    <t>Lower explore button on homepage unresponsive</t>
+  </si>
+  <si>
+    <t>UIB02</t>
+  </si>
+  <si>
+    <t>See the Source button on homepage unresponsive</t>
   </si>
 </sst>
 </file>
@@ -541,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -767,7 +788,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,6 +828,9 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -821,6 +845,9 @@
       <c r="D3" t="s">
         <v>40</v>
       </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -835,6 +862,9 @@
       <c r="D4" t="s">
         <v>42</v>
       </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -849,6 +879,9 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -863,6 +896,9 @@
       <c r="D6" t="s">
         <v>47</v>
       </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -876,6 +912,9 @@
       </c>
       <c r="D7" t="s">
         <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -885,13 +924,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -913,6 +960,40 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tests.xlsx
+++ b/docs/Tests.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Table</t>
   </si>
@@ -68,21 +68,12 @@
     <t>string</t>
   </si>
   <si>
-    <t>auth.js user_profile[name]</t>
-  </si>
-  <si>
-    <t>auth.js user_profile[id]</t>
-  </si>
-  <si>
     <t>preferences</t>
   </si>
   <si>
     <t>[PreferenceSchema]</t>
   </si>
   <si>
-    <t>categories</t>
-  </si>
-  <si>
     <t>when?</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>[SongSchema]</t>
   </si>
   <si>
-    <t>songs (or queue?)</t>
-  </si>
-  <si>
     <t>while listening to song</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>uri</t>
   </si>
   <si>
-    <t>categories-&gt;songs (or queue?)</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -138,6 +123,147 @@
   </si>
   <si>
     <t>Completion Date</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Home Button</t>
+  </si>
+  <si>
+    <t>UI01</t>
+  </si>
+  <si>
+    <t>About Button</t>
+  </si>
+  <si>
+    <t>Navigate to "about" section on homepage</t>
+  </si>
+  <si>
+    <t>Navigate to homepage</t>
+  </si>
+  <si>
+    <t>UI02</t>
+  </si>
+  <si>
+    <t>Navigate to "play" page</t>
+  </si>
+  <si>
+    <t>UI03</t>
+  </si>
+  <si>
+    <t>Green Triangle icon</t>
+  </si>
+  <si>
+    <t>UI04</t>
+  </si>
+  <si>
+    <t>Upper Explore Button</t>
+  </si>
+  <si>
+    <t>Lower Explore Button</t>
+  </si>
+  <si>
+    <t>UI05</t>
+  </si>
+  <si>
+    <t>"see the source" button</t>
+  </si>
+  <si>
+    <t>redirect to github repo</t>
+  </si>
+  <si>
+    <t>UI06</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>playlist</t>
+  </si>
+  <si>
+    <t>playlist-&gt;queue</t>
+  </si>
+  <si>
+    <t>after song finishes, if song is enjoyed</t>
+  </si>
+  <si>
+    <t>songs</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>DB01</t>
+  </si>
+  <si>
+    <t>DB02</t>
+  </si>
+  <si>
+    <t>DB03</t>
+  </si>
+  <si>
+    <t>DB04</t>
+  </si>
+  <si>
+    <t>DB05</t>
+  </si>
+  <si>
+    <t>DB06</t>
+  </si>
+  <si>
+    <t>DB07</t>
+  </si>
+  <si>
+    <t>written by DB04 (Spotify)</t>
+  </si>
+  <si>
+    <t>written by DB05 (Spotify)</t>
+  </si>
+  <si>
+    <t>array length?</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>UIB01</t>
+  </si>
+  <si>
+    <t>Jinghu</t>
+  </si>
+  <si>
+    <t>Lower explore button on homepage unresponsive</t>
+  </si>
+  <si>
+    <t>UIB02</t>
+  </si>
+  <si>
+    <t>UI07</t>
+  </si>
+  <si>
+    <t>See the Source button on homepage unresponsive</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>UI08</t>
+  </si>
+  <si>
+    <t>UI09</t>
+  </si>
+  <si>
+    <t>UI10</t>
+  </si>
+  <si>
+    <t>UIB03</t>
+  </si>
+  <si>
+    <t>About button on play page does not redirect to homepage before trying to access #content</t>
   </si>
 </sst>
 </file>
@@ -173,8 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,12 +593,14 @@
     <col min="1" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -500,7 +629,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -515,12 +644,15 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -535,75 +667,137 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -613,29 +807,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -645,32 +1014,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43443</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tests.xlsx
+++ b/docs/Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>Table</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>Constraints</t>
-  </si>
-  <si>
     <t>TestID</t>
   </si>
   <si>
@@ -65,15 +62,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>preferences</t>
   </si>
   <si>
-    <t>[PreferenceSchema]</t>
-  </si>
-  <si>
     <t>when?</t>
   </si>
   <si>
@@ -83,21 +74,12 @@
     <t>To get spotify recommendations</t>
   </si>
   <si>
-    <t>after getting recommendations</t>
-  </si>
-  <si>
     <t>[SongSchema]</t>
   </si>
   <si>
     <t>while listening to song</t>
   </si>
   <si>
-    <t>after song finishes</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -176,21 +158,6 @@
     <t>UI06</t>
   </si>
   <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>playlist</t>
-  </si>
-  <si>
-    <t>playlist-&gt;queue</t>
-  </si>
-  <si>
-    <t>after song finishes, if song is enjoyed</t>
-  </si>
-  <si>
-    <t>songs</t>
-  </si>
-  <si>
     <t>Spotify</t>
   </si>
   <si>
@@ -209,21 +176,6 @@
     <t>DB05</t>
   </si>
   <si>
-    <t>DB06</t>
-  </si>
-  <si>
-    <t>DB07</t>
-  </si>
-  <si>
-    <t>written by DB04 (Spotify)</t>
-  </si>
-  <si>
-    <t>written by DB05 (Spotify)</t>
-  </si>
-  <si>
-    <t>array length?</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -242,7 +194,40 @@
     <t>UIB02</t>
   </si>
   <si>
+    <t>UI07</t>
+  </si>
+  <si>
     <t>See the Source button on homepage unresponsive</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>UI08</t>
+  </si>
+  <si>
+    <t>UI09</t>
+  </si>
+  <si>
+    <t>UI10</t>
+  </si>
+  <si>
+    <t>UIB03</t>
+  </si>
+  <si>
+    <t>About button on play page does not redirect to homepage before trying to access #content</t>
+  </si>
+  <si>
+    <t>On initial signin</t>
+  </si>
+  <si>
+    <t>written by DB05/DB03 (Spotify)</t>
+  </si>
+  <si>
+    <t>DBB01</t>
+  </si>
+  <si>
+    <t>New preferences are not added to preference list while listening</t>
   </si>
 </sst>
 </file>
@@ -278,8 +263,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,9 +562,9 @@
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -601,181 +587,135 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -785,136 +725,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -924,17 +932,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
@@ -942,56 +950,99 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43443</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tests.xlsx
+++ b/docs/Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>Table</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>Constraints</t>
-  </si>
-  <si>
     <t>TestID</t>
   </si>
   <si>
@@ -65,15 +62,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>preferences</t>
   </si>
   <si>
-    <t>[PreferenceSchema]</t>
-  </si>
-  <si>
     <t>when?</t>
   </si>
   <si>
@@ -83,21 +74,12 @@
     <t>To get spotify recommendations</t>
   </si>
   <si>
-    <t>after getting recommendations</t>
-  </si>
-  <si>
     <t>[SongSchema]</t>
   </si>
   <si>
     <t>while listening to song</t>
   </si>
   <si>
-    <t>after song finishes</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -176,21 +158,6 @@
     <t>UI06</t>
   </si>
   <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>playlist</t>
-  </si>
-  <si>
-    <t>playlist-&gt;queue</t>
-  </si>
-  <si>
-    <t>after song finishes, if song is enjoyed</t>
-  </si>
-  <si>
-    <t>songs</t>
-  </si>
-  <si>
     <t>Spotify</t>
   </si>
   <si>
@@ -209,21 +176,6 @@
     <t>DB05</t>
   </si>
   <si>
-    <t>DB06</t>
-  </si>
-  <si>
-    <t>DB07</t>
-  </si>
-  <si>
-    <t>written by DB04 (Spotify)</t>
-  </si>
-  <si>
-    <t>written by DB05 (Spotify)</t>
-  </si>
-  <si>
-    <t>array length?</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -264,6 +216,18 @@
   </si>
   <si>
     <t>About button on play page does not redirect to homepage before trying to access #content</t>
+  </si>
+  <si>
+    <t>On initial signin</t>
+  </si>
+  <si>
+    <t>written by DB05/DB03 (Spotify)</t>
+  </si>
+  <si>
+    <t>DBB01</t>
+  </si>
+  <si>
+    <t>New preferences are not added to preference list while listening</t>
   </si>
 </sst>
 </file>
@@ -582,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,9 +562,9 @@
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -623,181 +587,135 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -822,189 +740,189 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +932,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,39 +950,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1">
         <v>43443</v>
@@ -1072,19 +990,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1">
         <v>43443</v>
@@ -1092,22 +1010,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1">
         <v>43443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tests.xlsx
+++ b/docs/Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>Table</t>
   </si>
@@ -228,6 +228,51 @@
   </si>
   <si>
     <t>New preferences are not added to preference list while listening</t>
+  </si>
+  <si>
+    <t>Video popout bar</t>
+  </si>
+  <si>
+    <t>Open Video display window</t>
+  </si>
+  <si>
+    <t>UI11</t>
+  </si>
+  <si>
+    <t>Play Button</t>
+  </si>
+  <si>
+    <t>UI12</t>
+  </si>
+  <si>
+    <t>Start song, switch to pause button</t>
+  </si>
+  <si>
+    <t>Pause Button</t>
+  </si>
+  <si>
+    <t>Pause song, switch to play button</t>
+  </si>
+  <si>
+    <t>UI13</t>
+  </si>
+  <si>
+    <t>Skip Button</t>
+  </si>
+  <si>
+    <t>Skip to next song</t>
+  </si>
+  <si>
+    <t>UI14</t>
+  </si>
+  <si>
+    <t>Back button</t>
+  </si>
+  <si>
+    <t>Go back to last song</t>
+  </si>
+  <si>
+    <t>UI15</t>
   </si>
 </sst>
 </file>
@@ -548,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -725,10 +770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,6 +967,91 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
     </row>

--- a/docs/Tests.xlsx
+++ b/docs/Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>Table</t>
   </si>
@@ -228,6 +228,51 @@
   </si>
   <si>
     <t>New preferences are not added to preference list while listening</t>
+  </si>
+  <si>
+    <t>Video popout bar</t>
+  </si>
+  <si>
+    <t>Open Video display window</t>
+  </si>
+  <si>
+    <t>UI11</t>
+  </si>
+  <si>
+    <t>Play Button</t>
+  </si>
+  <si>
+    <t>UI12</t>
+  </si>
+  <si>
+    <t>Start song, switch to pause button</t>
+  </si>
+  <si>
+    <t>Pause Button</t>
+  </si>
+  <si>
+    <t>Pause song, switch to play button</t>
+  </si>
+  <si>
+    <t>UI13</t>
+  </si>
+  <si>
+    <t>Skip Button</t>
+  </si>
+  <si>
+    <t>Skip to next song</t>
+  </si>
+  <si>
+    <t>UI14</t>
+  </si>
+  <si>
+    <t>Back button</t>
+  </si>
+  <si>
+    <t>Go back to last song</t>
+  </si>
+  <si>
+    <t>UI15</t>
   </si>
 </sst>
 </file>
@@ -548,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -725,10 +770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,6 +970,91 @@
         <v>51</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -934,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
